--- a/biology/Botanique/Juniperus_deppeana/Juniperus_deppeana.xlsx
+++ b/biology/Botanique/Juniperus_deppeana/Juniperus_deppeana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juniperus deppeana, appelé communément genévrier alligator[1] ou genévrier à écorce d'alligator[2], est une espèce de plante nord-américaine de la famille des Cupressaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juniperus deppeana, appelé communément genévrier alligator ou genévrier à écorce d'alligator, est une espèce de plante nord-américaine de la famille des Cupressaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Juniperus deppeana est un arbre ou un arbuste à feuilles persistantes qui atteint une hauteur d'environ 10 à 15 mètres (rarement jusqu'à 21) et un diamètre à hauteur de poitrine de 25 à 120 centimètres. La cime est large et irrégulièrement conique. Les arbres ont un tronc relativement court et solide. Les branches atteignent un diamètre d'environ 1 millimètre.
 Juniperus deppeana est nommé d'après l'écorce de couleur brun rougeâtre foncé à noirâtre, qui rappelle la peau des alligators en raison de son écaillage rectangulaire régulier. Elle mesure entre 2,5 et 10 cm d'épaisseur. Les écailles atteignent un diamètre de 2,5 à 5 cm. Les couches d'écorce plus profondes sont de couleur brun rougeâtre à violette. Les fines branches ont une écorce bleu-vert pâle qui devient brun rougeâtre clair après la chute des aiguilles.
@@ -547,10 +561,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition naturelle de Juniperus deppeana , y compris ses variétés, se situe principalement dans le sud-ouest et le centre-sud des États-Unis et dans le nord du Mexique. Il s'étend des montagnes du centre et du sud de l'Arizona au sud-ouest du Nouveau-Mexique et au sud du Texas jusqu'aux provinces mexicaines de Sonora, Chihuahua et Coahuila. De plus, cette espèce est présente dans des zones isolées du centre du Mexique, également dans le sud du Mexique et au Guatemala voisin.
-Le genévrier alligator colonise principalement les sols calcaires secs principalement à des altitudes de 1 330 à 2 660 m[3].
+Le genévrier alligator colonise principalement les sols calcaires secs principalement à des altitudes de 1 330 à 2 660 m.
 On le trouve rarement dans les collections européennes.
 </t>
         </is>
@@ -580,7 +596,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Juniperus deppeana comprend les sous-espèces suivantes :
 Juniperus deppeana var. deppeana (Syn. : Juniperus deppeana var. pachyphlaea), la sous-espèce la plus commune, a trois formes :
@@ -618,11 +636,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se rencontre souvent avec des espèces de pins comme Pinus edulis, Pinus monophylla, Pinus ponderosa, Pinus leiophylla, des espèces de chêne (Quercus) et d'autres espèces de genévrier. Il est aussi en association avec Cercocarpus breviflorus, Astragalus hypoxylus (en), Lycium pallidum, Fendlera rupicola (en).
 Juniperus deppeana sert de plante hôte aux chenilles de Periploca atrata, Sphinx dollii, Callophrys gryneus.
-Les cônes sont une nourriture pour des oiseaux comme le Geai des pinèdes et des mammifères, comme les rongeurs Neotoma albigula et Sigmodon ochrognathus[4].
+Les cônes sont une nourriture pour des oiseaux comme le Geai des pinèdes et des mammifères, comme les rongeurs Neotoma albigula et Sigmodon ochrognathus.
 </t>
         </is>
       </c>
@@ -651,7 +671,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois de genévrier alligator est utilisé comme combustible et pour la production de poteaux de clôture. Il ne peut être transformé en papier qu'après avoir été mélangé avec du bois d'autres types. Les cônes de baies servaient de nourriture à diverses tribus indiennes.
 </t>
